--- a/biology/Zoologie/Cynops_ensicauda/Cynops_ensicauda.xlsx
+++ b/biology/Zoologie/Cynops_ensicauda/Cynops_ensicauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynops ensicauda est une espèce d'urodèles de la famille des Salamandridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynops ensicauda est une espèce d'urodèles de la famille des Salamandridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les îles Amami et Okinawa dans les Ryūkyū[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les îles Amami et Okinawa dans les Ryūkyū.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
